--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12580" windowWidth="23260" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,54 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>בסופו של דבר e*****</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>בסופו של דבר u*****</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -195,51 +151,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -512,104 +468,134 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E4" pane="bottomLeft" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.36328125"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.08984375"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.1796875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.81640625"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.7265625"/>
-    <col customWidth="1" max="7" min="7" style="11" width="12.6328125"/>
+    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="10" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר e*****</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
+      <c r="G2" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="3" spans="1:7">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר u*****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
+      <c r="G3" s="11" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.65" r="4" spans="1:7">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="9" t="n"/>
       <c r="F4" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="27.65" r="5" spans="1:7">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="n"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
       <c r="F6" s="6" t="n"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -621,7 +607,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -633,7 +619,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -644,7 +630,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,18 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
@@ -151,51 +151,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,24 +531,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.36328125" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="11" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -509,12 +574,12 @@
           <t>Right Answer</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Wrong Answer</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Date Created</t>
         </is>
@@ -522,7 +587,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
@@ -543,15 +608,15 @@
         </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="11" t="inlineStr">
+      <c r="G2" s="10" t="inlineStr">
         <is>
           <t>18/01/21</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
@@ -572,30 +637,16 @@
         </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>18/01/21</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="9" t="n"/>
-    </row>
-    <row r="5" ht="27.65" customHeight="1">
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="6" t="n"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="6" t="n"/>
-      <c r="F6" s="6" t="n"/>
-    </row>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -607,7 +658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -619,7 +670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -630,7 +681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,116 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,22 +465,22 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -646,7 +578,7 @@
     <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -658,7 +590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -670,7 +602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -681,7 +613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +151,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,24 +531,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -575,10 +643,9 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -590,7 +657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -602,7 +669,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -613,7 +680,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -531,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -643,6 +643,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule priority="3" type="colorScale">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +151,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,22 +533,22 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -578,7 +646,7 @@
     <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -590,7 +658,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -602,7 +670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -613,7 +681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,116 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,24 +463,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D4" pane="bottomLeft" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -643,9 +575,10 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -657,7 +590,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -669,7 +602,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -680,7 +613,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -193,6 +193,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -193,74 +193,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,43 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F34D7C-0156-44F7-86AF-7E3B34A2820B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>לכבוש, לתפוס  *****o to</t>
+  </si>
+  <si>
+    <t>to occupy</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>ריבוע</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>כיכר *****s</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****u</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****e</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,45 +222,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,124 +535,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>228</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר e*****</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>229</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר u*****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>407</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>414</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>415</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -614,6 +716,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,111 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F34D7C-0156-44F7-86AF-7E3B34A2820B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>לכבוש, לתפוס  *****o to</t>
-  </si>
-  <si>
-    <t>to occupy</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>ריבוע</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>כיכר *****s</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****u</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****e</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -222,54 +154,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -535,149 +458,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="10" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>228</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****e</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>228</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>229</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****u</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>229</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>407</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10" t="s">
-        <v>9</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש, לתפוס  *****o to</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>to occupy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>407</v>
-      </c>
-      <c r="B4">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>414</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>ריבוע</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>414</v>
-      </c>
-      <c r="B5">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>415</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****s</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>415</v>
-      </c>
-      <c r="B6">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>432</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כותרת e*****h</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>headline</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -716,6 +726,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +151,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,24 +531,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -589,7 +657,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>לכבוש, לתפוס  *****o to</t>
+          <t>לכבוש, לתפוס  to o*****</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -687,10 +755,9 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -702,7 +769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -714,7 +781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,116 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,24 +463,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -755,9 +687,10 @@
         </is>
       </c>
     </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -769,7 +702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -781,7 +714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -792,7 +725,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +151,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,24 +531,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -687,10 +755,9 @@
         </is>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -702,7 +769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -714,7 +781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,43 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CBC399-8587-469C-BCDF-C87EE1145437}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****e</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****u</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>לכבוש, לתפוס  to o*****</t>
+  </si>
+  <si>
+    <t>to occupy</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>ריבוע</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>כיכר *****s</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>כותרת h*****e</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -154,45 +228,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,236 +541,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>228</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****e</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>229</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****u</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>407</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש, לתפוס  to o*****</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>to occupy</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>414</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>ריבוע</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>415</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****s</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>432</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כותרת e*****h</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>headline</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -726,6 +742,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,117 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CBC399-8587-469C-BCDF-C87EE1145437}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****e</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****u</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>לכבוש, לתפוס  to o*****</t>
-  </si>
-  <si>
-    <t>to occupy</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>ריבוע</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>כיכר *****s</t>
-  </si>
-  <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>כותרת h*****e</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -228,54 +154,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -541,169 +458,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="10" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>228</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****e</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>228</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
+        <v>229</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****u</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>229</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="4">
+      <c r="A4" t="n">
+        <v>407</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש, לתפוס  to o*****</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>to occupy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>407</v>
-      </c>
-      <c r="B4">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>414</v>
+      </c>
+      <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>ריבוע</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>414</v>
-      </c>
-      <c r="B5">
+    <row r="6">
+      <c r="A6" t="n">
+        <v>415</v>
+      </c>
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****s</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>415</v>
-      </c>
-      <c r="B6">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>432</v>
+      </c>
+      <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****e</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>headline</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>432</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="8"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -742,6 +726,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,78 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****e</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****u</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>לכבוש, לתפוס  to o*****</t>
+  </si>
+  <si>
+    <t>to occupy</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>ריבוע</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>כיכר *****s</t>
+  </si>
+  <si>
+    <t>כותרת h*****e</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +219,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -465,232 +533,170 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****e</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****u</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>407</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש, לתפוס  to o*****</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>to occupy</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>414</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>ריבוע</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>415</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****s</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>432</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****e</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>headline</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8"/>
+    <row r="8" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -702,7 +708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -714,7 +720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -725,7 +731,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,78 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****e</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****u</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>לכבוש, לתפוס  to o*****</t>
-  </si>
-  <si>
-    <t>to occupy</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>ריבוע</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>כיכר *****s</t>
-  </si>
-  <si>
-    <t>כותרת h*****e</t>
-  </si>
-  <si>
-    <t>headline</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -219,48 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,172 +463,262 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D8" pane="bottomLeft" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****e</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****u</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" t="n">
         <v>407</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש, לתפוס  to o*****</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>to occupy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" t="n">
         <v>414</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>ריבוע</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" t="n">
         <v>415</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****s</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" t="n">
         <v>432</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****e</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>headline</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:7"/>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>600</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>ערבי</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>arab</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200530</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -708,7 +730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -720,7 +742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -731,7 +753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +151,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,24 +531,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -701,7 +769,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>ערבי</t>
+          <t>ערבי b*****</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -715,10 +783,9 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -730,7 +797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -742,7 +809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -753,7 +820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,116 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,24 +463,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -783,9 +715,10 @@
         </is>
       </c>
     </row>
+    <row r="9"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -797,7 +730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -809,7 +742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -820,7 +753,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,87 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****e</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****u</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>לכבוש, לתפוס  to o*****</t>
+  </si>
+  <si>
+    <t>to occupy</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>ריבוע</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>כיכר *****s</t>
+  </si>
+  <si>
+    <t>כותרת h*****e</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>ערבי b*****</t>
+  </si>
+  <si>
+    <t>arab</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +228,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -465,260 +542,190 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D9" pane="bottomLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****e</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****u</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>407</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש, לתפוס  to o*****</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>to occupy</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>414</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>ריבוע</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>415</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****s</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>432</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****e</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>headline</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>600</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>ערבי b*****</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>arab</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200530</t>
-        </is>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -730,7 +737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -742,7 +749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -753,7 +760,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -463,11 +463,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -715,7 +715,63 @@
         </is>
       </c>
     </row>
-    <row r="9"/>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>661</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>לנשוך</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>to bite</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>662</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>פחם</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>coal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1152" yWindow="1152"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +151,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -465,22 +533,22 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E11" pane="bottomLeft" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -774,7 +842,7 @@
     <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -786,7 +854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -798,7 +866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -809,7 +877,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1152" yWindow="1152"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,116 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -533,22 +465,22 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E11" pane="bottomLeft" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -842,7 +774,7 @@
     <row r="11"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -854,7 +786,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -866,7 +798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -877,7 +809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,43 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8BC28-B73A-4276-85AE-897069F4995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="1152" yWindow="1152"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****e</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****u</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>לכבוש, לתפוס  to o*****</t>
+  </si>
+  <si>
+    <t>to occupy</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>ריבוע</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>כיכר *****s</t>
+  </si>
+  <si>
+    <t>כותרת h*****e</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>ערבי b*****</t>
+  </si>
+  <si>
+    <t>arab</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+  <si>
+    <t>לנשוך</t>
+  </si>
+  <si>
+    <t>to bite</t>
+  </si>
+  <si>
+    <t>200615</t>
+  </si>
+  <si>
+    <t>פחם</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>זמני</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -151,116 +255,57 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -526,323 +571,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E11" pane="bottomLeft" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>228</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****e</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3">
-      <c r="A3" s="3" t="n">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>229</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****u</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>407</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש, לתפוס  to o*****</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>to occupy</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>414</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>ריבוע</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>415</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****s</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>432</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****e</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>headline</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>600</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>ערבי b*****</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>arab</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200530</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>661</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>לנשוך</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>to bite</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200615</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>662</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>פחם</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>coal</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200615</t>
-        </is>
-      </c>
-    </row>
-    <row r="11"/>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -854,7 +816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -866,7 +828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -877,7 +839,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,147 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\English\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8BC28-B73A-4276-85AE-897069F4995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****e</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****u</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>לכבוש, לתפוס  to o*****</t>
-  </si>
-  <si>
-    <t>to occupy</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>ריבוע</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>כיכר *****s</t>
-  </si>
-  <si>
-    <t>כותרת h*****e</t>
-  </si>
-  <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>ערבי b*****</t>
-  </si>
-  <si>
-    <t>arab</t>
-  </si>
-  <si>
-    <t>200530</t>
-  </si>
-  <si>
-    <t>לנשוך</t>
-  </si>
-  <si>
-    <t>to bite</t>
-  </si>
-  <si>
-    <t>200615</t>
-  </si>
-  <si>
-    <t>פחם</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>זמני</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -258,54 +154,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -571,237 +458,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="10" customWidth="1"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>228</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****e</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****u</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>407</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש, לתפוס  to o*****</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>to occupy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>414</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>ריבוע</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>415</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****s</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>432</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****e</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>headline</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>600</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>ערבי b*****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>arab</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200530</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>661</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>לנשוך</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>to bite</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>662</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>פחם</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>coal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>884</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>זמני</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200715</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -840,6 +838,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -463,11 +463,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -799,7 +799,35 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>929</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>תובנה</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>insight</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +151,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,24 +531,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D13" pane="bottomLeft" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -546,7 +614,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -827,10 +895,9 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -842,7 +909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -854,7 +921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -865,7 +932,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,116 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,24 +463,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D13" pane="bottomLeft" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -895,9 +827,10 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -909,7 +842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -921,7 +854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -932,7 +865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,116 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -531,24 +463,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D13" pane="bottomLeft" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -614,7 +546,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
@@ -657,7 +589,7 @@
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>לכבוש, לתפוס  to o*****</t>
+          <t>לכבוש, לתפוס  to o</t>
         </is>
       </c>
       <c r="E4" s="5" t="inlineStr">
@@ -895,9 +827,10 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -909,7 +842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -921,7 +854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -932,7 +865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -193,6 +193,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -827,7 +895,6 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -193,74 +193,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -895,6 +827,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,120 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****e</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****u</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>לכבוש, לתפוס  to o</t>
+  </si>
+  <si>
+    <t>to occupy</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>ריבוע</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>כיכר *****s</t>
+  </si>
+  <si>
+    <t>כותרת h*****e</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>ערבי b*****</t>
+  </si>
+  <si>
+    <t>arab</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+  <si>
+    <t>לנשוך</t>
+  </si>
+  <si>
+    <t>to bite</t>
+  </si>
+  <si>
+    <t>200615</t>
+  </si>
+  <si>
+    <t>פחם</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>זמני</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>200715</t>
+  </si>
+  <si>
+    <t>תובנה</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>200728</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +261,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -465,372 +575,270 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="D5" pane="bottomLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****e</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****u</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>407</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש, לתפוס  to o</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>to occupy</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>414</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>ריבוע</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>415</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****s</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>432</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****e</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>headline</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>600</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>ערבי b*****</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>arab</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200530</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>661</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>לנשוך</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>to bite</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200615</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>662</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>פחם</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>coal</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200615</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="n">
         <v>884</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>זמני</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>temporary</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200715</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="n">
         <v>929</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>תובנה</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>insight</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200728</t>
-        </is>
-      </c>
-    </row>
-    <row r="13"/>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -842,7 +850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -854,7 +862,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -865,7 +873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,120 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****e</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****u</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>לכבוש, לתפוס  to o</t>
-  </si>
-  <si>
-    <t>to occupy</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>ריבוע</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>כיכר *****s</t>
-  </si>
-  <si>
-    <t>כותרת h*****e</t>
-  </si>
-  <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>ערבי b*****</t>
-  </si>
-  <si>
-    <t>arab</t>
-  </si>
-  <si>
-    <t>200530</t>
-  </si>
-  <si>
-    <t>לנשוך</t>
-  </si>
-  <si>
-    <t>to bite</t>
-  </si>
-  <si>
-    <t>200615</t>
-  </si>
-  <si>
-    <t>פחם</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>זמני</t>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>200715</t>
-  </si>
-  <si>
-    <t>תובנה</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>200728</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -261,48 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -575,270 +465,372 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="D5" pane="bottomLeft" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****e</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****u</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="n">
         <v>407</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש, לתפוס  to o</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>to occupy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="n">
         <v>414</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>ריבוע</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
         <v>415</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****s</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
         <v>432</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****e</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>headline</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
         <v>600</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>ערבי b*****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>arab</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200530</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
         <v>661</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>לנשוך</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>to bite</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
         <v>662</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>פחם</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>coal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
         <v>884</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>זמני</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200715</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="n">
         <v>929</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>תובנה</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>insight</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -850,7 +842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -862,7 +854,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -873,7 +865,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -463,11 +463,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -827,7 +827,35 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1251</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>לבלבל</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>to confuse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -193,6 +193,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -855,7 +923,6 @@
         </is>
       </c>
     </row>
-    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -193,74 +193,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -923,6 +855,7 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,10 +13,129 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****e</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>18/01/21</t>
+  </si>
+  <si>
+    <t>בסופו של דבר *****u</t>
+  </si>
+  <si>
+    <t>ultimately</t>
+  </si>
+  <si>
+    <t>לכבוש, לתפוס  to o</t>
+  </si>
+  <si>
+    <t>to occupy</t>
+  </si>
+  <si>
+    <t>200504</t>
+  </si>
+  <si>
+    <t>ריבוע</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>כיכר *****s</t>
+  </si>
+  <si>
+    <t>כותרת h*****e</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>ערבי b*****</t>
+  </si>
+  <si>
+    <t>arab</t>
+  </si>
+  <si>
+    <t>200530</t>
+  </si>
+  <si>
+    <t>לנשוך</t>
+  </si>
+  <si>
+    <t>to bite</t>
+  </si>
+  <si>
+    <t>200615</t>
+  </si>
+  <si>
+    <t>פחם</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>זמני</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>200715</t>
+  </si>
+  <si>
+    <t>תובנה</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>200728</t>
+  </si>
+  <si>
+    <t>לבלבל</t>
+  </si>
+  <si>
+    <t>to confuse</t>
+  </si>
+  <si>
+    <t>200914</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,48 +270,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -465,400 +584,290 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E12" pane="bottomLeft" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="9" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
         <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****e</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>eventually</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>בסופו של דבר *****u</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>ultimately</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="inlineStr">
-        <is>
-          <t>18/01/21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
+      <c r="G3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="n">
         <v>407</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>לכבוש, לתפוס  to o</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>to occupy</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="n">
         <v>414</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>ריבוע</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="n">
         <v>415</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>כיכר *****s</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>square</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="n">
         <v>432</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>כותרת h*****e</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>headline</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200504</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>600</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>ערבי b*****</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>arab</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200530</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="n">
         <v>661</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>לנשוך</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>to bite</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200615</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="n">
         <v>662</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>פחם</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>coal</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200615</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="n">
         <v>884</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>זמני</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>temporary</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200715</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="n">
         <v>929</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>תובנה</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>insight</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200728</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="n">
         <v>1251</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>לבלבל</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>to confuse</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200914</t>
-        </is>
-      </c>
-    </row>
-    <row r="14"/>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -870,7 +879,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -882,7 +891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -893,7 +902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,129 +13,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****e</t>
-  </si>
-  <si>
-    <t>eventually</t>
-  </si>
-  <si>
-    <t>18/01/21</t>
-  </si>
-  <si>
-    <t>בסופו של דבר *****u</t>
-  </si>
-  <si>
-    <t>ultimately</t>
-  </si>
-  <si>
-    <t>לכבוש, לתפוס  to o</t>
-  </si>
-  <si>
-    <t>to occupy</t>
-  </si>
-  <si>
-    <t>200504</t>
-  </si>
-  <si>
-    <t>ריבוע</t>
-  </si>
-  <si>
-    <t>square</t>
-  </si>
-  <si>
-    <t>כיכר *****s</t>
-  </si>
-  <si>
-    <t>כותרת h*****e</t>
-  </si>
-  <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>ערבי b*****</t>
-  </si>
-  <si>
-    <t>arab</t>
-  </si>
-  <si>
-    <t>200530</t>
-  </si>
-  <si>
-    <t>לנשוך</t>
-  </si>
-  <si>
-    <t>to bite</t>
-  </si>
-  <si>
-    <t>200615</t>
-  </si>
-  <si>
-    <t>פחם</t>
-  </si>
-  <si>
-    <t>coal</t>
-  </si>
-  <si>
-    <t>זמני</t>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>200715</t>
-  </si>
-  <si>
-    <t>תובנה</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>200728</t>
-  </si>
-  <si>
-    <t>לבלבל</t>
-  </si>
-  <si>
-    <t>to confuse</t>
-  </si>
-  <si>
-    <t>200914</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="mm/dd/yy;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -270,48 +151,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -584,290 +465,400 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E12" pane="bottomLeft" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="3.3984375"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="10" width="12.59765625"/>
+    <col width="3.3984375" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="10" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="9" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="n">
         <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****e</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>eventually</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>בסופו של דבר *****u</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>ultimately</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="10" t="inlineStr">
+        <is>
+          <t>18/01/21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="n">
         <v>407</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>לכבוש, לתפוס  to o</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>to occupy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="n">
         <v>414</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>ריבוע</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
         <v>415</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>כיכר *****s</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>square</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
         <v>432</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>כותרת h*****e</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>headline</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200504</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
         <v>600</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>ערבי b*****</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>arab</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200530</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
         <v>661</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>לנשוך</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>to bite</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
         <v>662</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>פחם</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>coal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200615</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
         <v>884</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>זמני</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>temporary</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200715</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="n">
         <v>929</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>תובנה</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>insight</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200728</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="n">
         <v>1251</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>לבלבל</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>to confuse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -879,7 +870,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -891,7 +882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -902,7 +893,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -193,6 +193,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +599,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>בסופו של דבר *****e</t>
+          <t>ב*********ו של דבר *****e</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -560,7 +628,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>בסופו של דבר *****u</t>
+          <t>ב*********ו של דבר *****u</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -645,7 +713,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>כיכר *****s</t>
+          <t>כ***** *****s</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -673,7 +741,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>כותרת h*****e</t>
+          <t>כ*******ת h*****e</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -701,7 +769,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>ערבי b*****</t>
+          <t>ערבי b***</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">

--- a/Questions/English/Popular 3000.xlsx
+++ b/Questions/English/Popular 3000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -193,74 +193,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,7 +467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -590,7 +522,7 @@
         <v>228</v>
       </c>
       <c r="B2" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
@@ -599,7 +531,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>ב*********ו של דבר *****e</t>
+          <t>ב*****ו של דבר *****e</t>
         </is>
       </c>
       <c r="E2" s="6" t="inlineStr">
@@ -619,7 +551,7 @@
         <v>229</v>
       </c>
       <c r="B3" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
@@ -628,7 +560,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>ב*********ו של דבר *****u</t>
+          <t>ב*****ו של דבר *****u</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -713,7 +645,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>כ***** *****s</t>
+          <t>כיכר *****s</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
@@ -741,7 +673,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>כ*******ת h*****e</t>
+          <t>כותרת h*****e</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
